--- a/UserUploadFormat.xlsx
+++ b/UserUploadFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel Angelico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel Angelico\Desktop\ANS-SEIS-TV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2829D65A-0BAF-4759-A240-1E7A6DECB602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A39B2E3-53B3-4FF0-881F-35E60C1AE9D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B55A943C-7D57-4CFE-A143-E7E9D1BE715A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -45,64 +45,40 @@
     <t>UsertypeID</t>
   </si>
   <si>
-    <t>NATE</t>
-  </si>
-  <si>
-    <t>jamie</t>
-  </si>
-  <si>
-    <t>alyza</t>
-  </si>
-  <si>
-    <t>jbrown</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>thahaha</t>
-  </si>
-  <si>
-    <t>Nathaniel Angelico</t>
-  </si>
-  <si>
-    <t>Jamie Hanna</t>
-  </si>
-  <si>
-    <t>Alyza Mae</t>
-  </si>
-  <si>
-    <t>John Brown</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Borres</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Dunno</t>
-  </si>
-  <si>
-    <t>Renegado</t>
-  </si>
-  <si>
-    <t>Tabanao</t>
-  </si>
-  <si>
-    <t>Dionson</t>
-  </si>
-  <si>
-    <t>Sericon</t>
-  </si>
-  <si>
-    <t>Geonson</t>
-  </si>
-  <si>
-    <t>hahaha</t>
+    <t>Person1</t>
+  </si>
+  <si>
+    <t>Person2</t>
+  </si>
+  <si>
+    <t>Person3</t>
+  </si>
+  <si>
+    <t>NameName1</t>
+  </si>
+  <si>
+    <t>NameName2</t>
+  </si>
+  <si>
+    <t>NameName3</t>
+  </si>
+  <si>
+    <t>NameN1</t>
+  </si>
+  <si>
+    <t>NameN2</t>
+  </si>
+  <si>
+    <t>NameN3</t>
+  </si>
+  <si>
+    <t>Last1</t>
+  </si>
+  <si>
+    <t>Last2</t>
+  </si>
+  <si>
+    <t>Last3</t>
   </si>
 </sst>
 </file>
@@ -463,7 +439,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>9395686461</v>
@@ -516,19 +492,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>9222729916</v>
       </c>
       <c r="F3" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,80 +512,32 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>3123456789</v>
       </c>
       <c r="F4" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2">
-        <v>123123123</v>
-      </c>
-      <c r="F5" s="1">
-        <v>111</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>111</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>123123</v>
-      </c>
-      <c r="F7" s="1">
-        <v>111</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UserUploadFormat.xlsx
+++ b/UserUploadFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel Angelico\Desktop\ANS-SEIS-TV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A39B2E3-53B3-4FF0-881F-35E60C1AE9D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0CE90C-4A7B-4232-A4E7-AD9719A3981B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B55A943C-7D57-4CFE-A143-E7E9D1BE715A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -45,40 +45,13 @@
     <t>UsertypeID</t>
   </si>
   <si>
-    <t>Person1</t>
-  </si>
-  <si>
-    <t>Person2</t>
-  </si>
-  <si>
-    <t>Person3</t>
-  </si>
-  <si>
-    <t>NameName1</t>
-  </si>
-  <si>
-    <t>NameName2</t>
-  </si>
-  <si>
-    <t>NameName3</t>
-  </si>
-  <si>
-    <t>NameN1</t>
-  </si>
-  <si>
-    <t>NameN2</t>
-  </si>
-  <si>
-    <t>NameN3</t>
-  </si>
-  <si>
-    <t>Last1</t>
-  </si>
-  <si>
-    <t>Last2</t>
-  </si>
-  <si>
-    <t>Last3</t>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
   </si>
 </sst>
 </file>
@@ -439,7 +412,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,13 +445,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>9395686461</v>
@@ -492,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>9222729916</v>
@@ -512,13 +485,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>3123456789</v>

--- a/UserUploadFormat.xlsx
+++ b/UserUploadFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel Angelico\Desktop\ANS-SEIS-TV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0CE90C-4A7B-4232-A4E7-AD9719A3981B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3951088-4340-4684-B8DC-A1C6F56B652D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B55A943C-7D57-4CFE-A143-E7E9D1BE715A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -51,7 +51,10 @@
     <t>User2</t>
   </si>
   <si>
-    <t>User3</t>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -462,7 +465,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -481,24 +484,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3123456789</v>
-      </c>
-      <c r="F4" s="1">
-        <v>113</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>

--- a/UserUploadFormat.xlsx
+++ b/UserUploadFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel Angelico\Desktop\ANS-SEIS-TV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3951088-4340-4684-B8DC-A1C6F56B652D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450DAC0-EA68-4B85-AF3F-D87D08418360}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B55A943C-7D57-4CFE-A143-E7E9D1BE715A}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>User2</t>
   </si>
   <si>
-    <t>User4</t>
-  </si>
-  <si>
-    <t>User5</t>
+    <t>Person3</t>
+  </si>
+  <si>
+    <t>Person4</t>
   </si>
 </sst>
 </file>
